--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxAuthorize.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxAuthorize.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.16\St1Share(NAS)\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8B4824-848E-43D2-A53E-C0279D50DD8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7950"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -265,9 +266,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Entdy</t>
-  </si>
-  <si>
     <t>會計日</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -300,17 +298,33 @@
   </si>
   <si>
     <t>ReasonFAJson</t>
+  </si>
+  <si>
+    <t>SupNo</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entdy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>findSupNoEntdy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SupNo ASC,Entdy ASC</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -318,7 +332,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -326,7 +340,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -334,7 +348,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -608,9 +622,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="2"/>
-    <cellStyle name="一般 2 3" xfId="3"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -701,6 +715,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -736,6 +767,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -911,31 +959,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.25" style="6" customWidth="1"/>
-    <col min="5" max="6" width="5.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.375" style="18" customWidth="1"/>
-    <col min="8" max="16384" width="21.5" style="4"/>
+    <col min="4" max="4" width="26.21875" style="6" customWidth="1"/>
+    <col min="5" max="6" width="5.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.33203125" style="18" customWidth="1"/>
+    <col min="8" max="16384" width="21.44140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>33</v>
@@ -944,7 +992,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="20"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
       <c r="B2" s="35"/>
       <c r="C2" s="10" t="s">
@@ -957,7 +1005,7 @@
       <c r="F2" s="12"/>
       <c r="G2" s="21"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
         <v>8</v>
       </c>
@@ -970,7 +1018,7 @@
       <c r="F3" s="12"/>
       <c r="G3" s="21"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="34" t="s">
         <v>10</v>
       </c>
@@ -981,7 +1029,7 @@
       <c r="F4" s="12"/>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
         <v>4</v>
       </c>
@@ -994,7 +1042,7 @@
       <c r="F5" s="12"/>
       <c r="G5" s="21"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
         <v>5</v>
       </c>
@@ -1005,7 +1053,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="21"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="34" t="s">
         <v>6</v>
       </c>
@@ -1016,7 +1064,7 @@
       <c r="F7" s="12"/>
       <c r="G7" s="21"/>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1">
+    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>0</v>
       </c>
@@ -1039,7 +1087,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>1</v>
       </c>
@@ -1056,7 +1104,7 @@
       <c r="F9" s="17"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:7" s="19" customFormat="1">
+    <row r="10" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="32">
         <v>2</v>
       </c>
@@ -1075,7 +1123,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="28"/>
     </row>
-    <row r="11" spans="1:7" s="19" customFormat="1">
+    <row r="11" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="32">
         <v>3</v>
       </c>
@@ -1094,15 +1142,15 @@
       <c r="F11" s="17"/>
       <c r="G11" s="28"/>
     </row>
-    <row r="12" spans="1:7" s="19" customFormat="1">
+    <row r="12" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="32">
         <v>5</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>47</v>
@@ -1113,26 +1161,26 @@
       <c r="F12" s="17"/>
       <c r="G12" s="28"/>
     </row>
-    <row r="13" spans="1:7" s="19" customFormat="1">
+    <row r="13" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="32">
         <v>6</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F13" s="33"/>
       <c r="G13" s="28"/>
     </row>
-    <row r="14" spans="1:7" s="19" customFormat="1">
+    <row r="14" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="32">
         <v>7</v>
       </c>
@@ -1140,7 +1188,7 @@
         <v>51</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="30" t="s">
         <v>49</v>
@@ -1151,7 +1199,7 @@
       <c r="F14" s="17"/>
       <c r="G14" s="28"/>
     </row>
-    <row r="15" spans="1:7" s="19" customFormat="1">
+    <row r="15" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="32">
         <v>8</v>
       </c>
@@ -1170,7 +1218,7 @@
       <c r="F15" s="17"/>
       <c r="G15" s="28"/>
     </row>
-    <row r="16" spans="1:7" s="19" customFormat="1">
+    <row r="16" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="32">
         <v>9</v>
       </c>
@@ -1189,7 +1237,7 @@
       <c r="F16" s="17"/>
       <c r="G16" s="28"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="32">
         <v>10</v>
       </c>
@@ -1203,7 +1251,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="32">
         <v>11</v>
       </c>
@@ -1220,7 +1268,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="32">
         <v>12</v>
       </c>
@@ -1234,7 +1282,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="32">
         <v>13</v>
       </c>
@@ -1268,23 +1316,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="100.88671875" style="2" customWidth="1"/>
     <col min="3" max="3" width="17" style="2" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -1295,7 +1343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>52</v>
       </c>
@@ -1303,29 +1351,40 @@
         <v>53</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>58</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxAuthorize.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxAuthorize.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.16\St1Share(NAS)\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8B4824-848E-43D2-A53E-C0279D50DD8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D2BD4C-AFCB-4192-B814-280890F621DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="348" yWindow="1152" windowWidth="22692" windowHeight="11508" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,49 +21,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
   <si>
     <t>SEQ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>讀取Key條件</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他ORDER條件</t>
+  </si>
+  <si>
+    <t>Uni</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>其他ORDER條件</t>
-  </si>
-  <si>
-    <t>Uni</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Index1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Index2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Index3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Table</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>PrimaryKey</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>FunNm</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ForeignKey1</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ForeignKey1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -163,22 +163,22 @@
   </si>
   <si>
     <t>auto</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>序號</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>varchar2</t>
   </si>
   <si>
     <t>AutoSeq</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CreateDate</t>
@@ -248,84 +248,86 @@
   </si>
   <si>
     <t>SupNo,Entdy</t>
-  </si>
-  <si>
-    <t>Entdy</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>findSupNo</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Entdy = ,AND SupNo =</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>findEntdy</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>會計日</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>findCreatDate</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Entdy &gt;= ,AND Entdy &lt;=,AND SupNo %</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateDate&gt;=, AND CreateDate&lt;= ,AND SupNo %</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>TxAuthorize</t>
-  </si>
-  <si>
-    <t>1200</t>
-  </si>
-  <si>
-    <t>授權編號和理由</t>
-  </si>
-  <si>
-    <t>交易理由</t>
-  </si>
-  <si>
-    <t>TradeReason</t>
-  </si>
-  <si>
-    <t>ReasonFAJson</t>
-  </si>
-  <si>
-    <t>SupNo</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Entdy</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>findSupNo</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entdy = ,AND SupNo =</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>findEntdy</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>會計日</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>findCreatDate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entdy &gt;= ,AND Entdy &lt;=,AND SupNo %</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateDate&gt;=, AND CreateDate&lt;= ,AND SupNo %</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TxAuthorize</t>
+  </si>
+  <si>
+    <t>1200</t>
+  </si>
+  <si>
+    <t>授權編號和理由</t>
+  </si>
+  <si>
+    <t>交易理由</t>
+  </si>
+  <si>
+    <t>TradeReason</t>
+  </si>
+  <si>
+    <t>ReasonFAJson</t>
+  </si>
+  <si>
     <t>findSupNoEntdy</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>SupNo ASC,Entdy ASC</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entdy</t>
+  </si>
+  <si>
+    <t>Entdy ASC,SupNo ASC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -490,14 +492,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -508,123 +519,126 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="7">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2 2 2" xfId="5" xr:uid="{FD99ACE1-2340-47F3-BE3D-D54CB29901C9}"/>
     <cellStyle name="一般 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="一般 2 3 2" xfId="6" xr:uid="{A79C1290-A0F2-4C9A-B82D-5413D7C58159}"/>
+    <cellStyle name="一般 2 4" xfId="4" xr:uid="{D8C8980C-4BE6-4698-BA66-6DCF77D9509B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -978,10 +992,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="7" t="s">
         <v>59</v>
       </c>
@@ -993,8 +1007,8 @@
       <c r="G1" s="20"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="10" t="s">
         <v>17</v>
       </c>
@@ -1006,10 +1020,10 @@
       <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="37"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="23" t="s">
         <v>34</v>
       </c>
@@ -1019,10 +1033,10 @@
       <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="7"/>
       <c r="D4" s="13"/>
       <c r="E4" s="12"/>
@@ -1030,10 +1044,10 @@
       <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="37"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="7" t="s">
         <v>50</v>
       </c>
@@ -1043,10 +1057,10 @@
       <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="35"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="7"/>
       <c r="D6" s="13"/>
       <c r="E6" s="12"/>
@@ -1054,10 +1068,10 @@
       <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="36"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="7"/>
       <c r="D7" s="13"/>
       <c r="E7" s="12"/>
@@ -1097,7 +1111,7 @@
       <c r="C9" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="29" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="17"/>
@@ -1105,7 +1119,7 @@
       <c r="G9" s="16"/>
     </row>
     <row r="10" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="32">
+      <c r="A10" s="31">
         <v>2</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1114,17 +1128,17 @@
       <c r="C10" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="29" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>25</v>
       </c>
       <c r="F10" s="17"/>
-      <c r="G10" s="28"/>
+      <c r="G10" s="27"/>
     </row>
     <row r="11" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="32">
+      <c r="A11" s="31">
         <v>3</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -1133,17 +1147,17 @@
       <c r="C11" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="29" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>39</v>
       </c>
       <c r="F11" s="17"/>
-      <c r="G11" s="28"/>
+      <c r="G11" s="27"/>
     </row>
     <row r="12" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="32">
+      <c r="A12" s="31">
         <v>5</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -1152,17 +1166,17 @@
       <c r="C12" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="29" t="s">
         <v>47</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>40</v>
       </c>
       <c r="F12" s="17"/>
-      <c r="G12" s="28"/>
+      <c r="G12" s="27"/>
     </row>
     <row r="13" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="32">
+      <c r="A13" s="31">
         <v>6</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -1171,17 +1185,17 @@
       <c r="C13" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="33"/>
-      <c r="G13" s="28"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="27"/>
     </row>
     <row r="14" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="32">
+      <c r="A14" s="31">
         <v>7</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1190,17 +1204,17 @@
       <c r="C14" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="32" t="s">
         <v>48</v>
       </c>
       <c r="F14" s="17"/>
-      <c r="G14" s="28"/>
+      <c r="G14" s="27"/>
     </row>
     <row r="15" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32">
+      <c r="A15" s="31">
         <v>8</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -1209,17 +1223,17 @@
       <c r="C15" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="29" t="s">
         <v>26</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>46</v>
       </c>
       <c r="F15" s="17"/>
-      <c r="G15" s="28"/>
+      <c r="G15" s="27"/>
     </row>
     <row r="16" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="32">
+      <c r="A16" s="31">
         <v>9</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -1228,40 +1242,40 @@
       <c r="C16" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="29" t="s">
         <v>26</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>45</v>
       </c>
       <c r="F16" s="17"/>
-      <c r="G16" s="28"/>
+      <c r="G16" s="27"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="32">
+      <c r="A17" s="31">
         <v>10</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="28" t="s">
         <v>28</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="30" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="32">
+      <c r="A18" s="31">
         <v>11</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="28" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="30" t="s">
         <v>20</v>
       </c>
       <c r="E18" s="3">
@@ -1269,30 +1283,30 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="32">
+      <c r="A19" s="31">
         <v>12</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="28" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="30" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="32">
+      <c r="A20" s="31">
         <v>13</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="28" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="30" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="3">
@@ -1309,7 +1323,7 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1321,7 +1335,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1350,8 +1364,8 @@
       <c r="B2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="27" t="s">
-        <v>65</v>
+      <c r="C2" s="37" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1361,7 +1375,7 @@
       <c r="B3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="37" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1372,23 +1386,23 @@
       <c r="B4" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>28</v>
+      <c r="C4" s="37" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="27" t="s">
-        <v>68</v>
+      <c r="C5" s="37" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxAuthorize.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxAuthorize.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.16\St1Share(NAS)\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D2BD4C-AFCB-4192-B814-280890F621DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3DB033-AFE9-4B88-A566-9C9F9C680224}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="1152" windowWidth="22692" windowHeight="11508" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
@@ -282,9 +282,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>TxAuthorize</t>
-  </si>
-  <si>
     <t>1200</t>
   </si>
   <si>
@@ -308,6 +305,10 @@
   </si>
   <si>
     <t>Entdy ASC,SupNo ASC</t>
+  </si>
+  <si>
+    <t>TxAuthorize</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -615,6 +616,9 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -626,9 +630,6 @@
     </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -976,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -992,12 +993,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="35"/>
       <c r="C1" s="7" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>33</v>
@@ -1007,8 +1008,8 @@
       <c r="G1" s="20"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="10" t="s">
         <v>17</v>
       </c>
@@ -1020,10 +1021,10 @@
       <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="36"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="23" t="s">
         <v>34</v>
       </c>
@@ -1033,10 +1034,10 @@
       <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="7"/>
       <c r="D4" s="13"/>
       <c r="E4" s="12"/>
@@ -1044,10 +1045,10 @@
       <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="7" t="s">
         <v>50</v>
       </c>
@@ -1057,10 +1058,10 @@
       <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="34"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="7"/>
       <c r="D6" s="13"/>
       <c r="E6" s="12"/>
@@ -1068,10 +1069,10 @@
       <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="35"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="7"/>
       <c r="D7" s="13"/>
       <c r="E7" s="12"/>
@@ -1161,10 +1162,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="29" t="s">
         <v>47</v>
@@ -1180,16 +1181,16 @@
         <v>6</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="29" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="27"/>
@@ -1333,7 +1334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
@@ -1364,7 +1365,7 @@
       <c r="B2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="33" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1375,8 +1376,8 @@
       <c r="B3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="37" t="s">
-        <v>66</v>
+      <c r="C3" s="33" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1386,19 +1387,19 @@
       <c r="B4" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="37" t="s">
-        <v>67</v>
+      <c r="C4" s="33" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="37" t="s">
-        <v>67</v>
+      <c r="C5" s="33" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxAuthorize.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxAuthorize.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.16\St1Share(NAS)\SKL\DB\GenTables\XX-系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3DB033-AFE9-4B88-A566-9C9F9C680224}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623D6ED5-9481-4229-AFB6-1E321E288AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -310,16 +310,25 @@
     <t>TxAuthorize</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>MrKey</t>
+  </si>
+  <si>
+    <t>交易編號</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -327,7 +336,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -335,7 +344,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -343,7 +352,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -351,7 +360,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -975,24 +984,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.375" style="3" customWidth="1"/>
     <col min="3" max="3" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.21875" style="6" customWidth="1"/>
-    <col min="5" max="6" width="5.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.33203125" style="18" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="4"/>
+    <col min="4" max="4" width="26.25" style="6" customWidth="1"/>
+    <col min="5" max="6" width="5.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.375" style="18" customWidth="1"/>
+    <col min="8" max="16384" width="21.5" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="34" t="s">
         <v>7</v>
       </c>
@@ -1007,7 +1016,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="20"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="34"/>
       <c r="B2" s="35"/>
       <c r="C2" s="10" t="s">
@@ -1020,7 +1029,7 @@
       <c r="F2" s="12"/>
       <c r="G2" s="21"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="37" t="s">
         <v>8</v>
       </c>
@@ -1033,7 +1042,7 @@
       <c r="F3" s="12"/>
       <c r="G3" s="21"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="34" t="s">
         <v>10</v>
       </c>
@@ -1044,7 +1053,7 @@
       <c r="F4" s="12"/>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="37" t="s">
         <v>4</v>
       </c>
@@ -1057,7 +1066,7 @@
       <c r="F5" s="12"/>
       <c r="G5" s="21"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="34" t="s">
         <v>5</v>
       </c>
@@ -1068,7 +1077,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="21"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="34" t="s">
         <v>6</v>
       </c>
@@ -1079,7 +1088,7 @@
       <c r="F7" s="12"/>
       <c r="G7" s="21"/>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="10" t="s">
         <v>0</v>
       </c>
@@ -1102,7 +1111,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="15">
         <v>1</v>
       </c>
@@ -1119,7 +1128,7 @@
       <c r="F9" s="17"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="19" customFormat="1">
       <c r="A10" s="31">
         <v>2</v>
       </c>
@@ -1138,7 +1147,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="27"/>
     </row>
-    <row r="11" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="19" customFormat="1">
       <c r="A11" s="31">
         <v>3</v>
       </c>
@@ -1157,9 +1166,9 @@
       <c r="F11" s="17"/>
       <c r="G11" s="27"/>
     </row>
-    <row r="12" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="19" customFormat="1">
       <c r="A12" s="31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>62</v>
@@ -1176,9 +1185,9 @@
       <c r="F12" s="17"/>
       <c r="G12" s="27"/>
     </row>
-    <row r="13" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="19" customFormat="1">
       <c r="A13" s="31">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>63</v>
@@ -1195,9 +1204,9 @@
       <c r="F13" s="32"/>
       <c r="G13" s="27"/>
     </row>
-    <row r="14" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="19" customFormat="1">
       <c r="A14" s="31">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>51</v>
@@ -1214,9 +1223,9 @@
       <c r="F14" s="17"/>
       <c r="G14" s="27"/>
     </row>
-    <row r="15" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" s="19" customFormat="1">
       <c r="A15" s="31">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>41</v>
@@ -1233,9 +1242,9 @@
       <c r="F15" s="17"/>
       <c r="G15" s="27"/>
     </row>
-    <row r="16" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="19" customFormat="1">
       <c r="A16" s="31">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>42</v>
@@ -1252,65 +1261,84 @@
       <c r="F16" s="17"/>
       <c r="G16" s="27"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="19" customFormat="1">
       <c r="A17" s="31">
+        <v>9</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="32"/>
+      <c r="G17" s="27"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="31">
         <v>10</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B18" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D18" s="30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="31">
+    <row r="19" spans="1:7">
+      <c r="A19" s="31">
         <v>11</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B19" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D19" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E19" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="31">
+    <row r="20" spans="1:7">
+      <c r="A20" s="31">
         <v>12</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B20" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D20" s="30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="31">
+    <row r="21" spans="1:7">
+      <c r="A21" s="31">
         <v>13</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B21" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D21" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E21" s="3">
         <v>6</v>
       </c>
     </row>
@@ -1339,15 +1367,15 @@
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="30" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="100.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="17" style="2" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -1358,7 +1386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>52</v>
       </c>
@@ -1369,7 +1397,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>54</v>
       </c>
@@ -1380,7 +1408,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>56</v>
       </c>
@@ -1391,7 +1419,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>64</v>
       </c>
